--- a/src/main/resources/tools/xml_tool/Excel_Template_Empty.xlsx
+++ b/src/main/resources/tools/xml_tool/Excel_Template_Empty.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achol\IdeaProjects\XML_Tool\src\main\resources\tools\xml_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.holmes1\IdeaProjects\XML_Tool\src\main\resources\tools\xml_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195425A1-7E70-47C0-A4E5-C292A4C8B988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D47AEAB-02DC-43A1-9658-A5375C4D9AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCC978E4-153D-444B-A566-8372D2C7B1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BCC978E4-153D-444B-A566-8372D2C7B1B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DIO" sheetId="2" r:id="rId1"/>
+    <sheet name="DIO2" sheetId="1" r:id="rId2"/>
+    <sheet name="AI (Int)" sheetId="3" r:id="rId3"/>
+    <sheet name="AIO (Float)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>OVERIDE</t>
   </si>
@@ -44,43 +47,85 @@
     <t>TestPointName 1</t>
   </si>
   <si>
-    <t>PointName</t>
-  </si>
-  <si>
-    <t>Descr</t>
-  </si>
-  <si>
-    <t>DigDev</t>
-  </si>
-  <si>
     <t>Controller</t>
   </si>
   <si>
-    <t>InpWord1</t>
-  </si>
-  <si>
-    <t>InpBit1</t>
-  </si>
-  <si>
-    <t>InpWord2</t>
-  </si>
-  <si>
-    <t>InpBit2</t>
-  </si>
-  <si>
-    <t>OutWord1</t>
-  </si>
-  <si>
-    <t>OutBit1</t>
-  </si>
-  <si>
-    <t>OutWord2</t>
-  </si>
-  <si>
     <t>DIO2 Template</t>
   </si>
   <si>
     <t>123D</t>
+  </si>
+  <si>
+    <t>DIO Template</t>
+  </si>
+  <si>
+    <t>ALARM1</t>
+  </si>
+  <si>
+    <t>AIO (Int) Template</t>
+  </si>
+  <si>
+    <t>Raw Max</t>
+  </si>
+  <si>
+    <t>Raw Min</t>
+  </si>
+  <si>
+    <t>Scaled Max</t>
+  </si>
+  <si>
+    <t>Scaled Min</t>
+  </si>
+  <si>
+    <t>Engineering Units</t>
+  </si>
+  <si>
+    <t>PSI</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>AIO (Float) Template</t>
+  </si>
+  <si>
+    <t>Deadband, %</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Point Name</t>
+  </si>
+  <si>
+    <t>Digital Device</t>
+  </si>
+  <si>
+    <t>Input Word 1</t>
+  </si>
+  <si>
+    <t>Input Word 2</t>
+  </si>
+  <si>
+    <t>Input Bit 1</t>
+  </si>
+  <si>
+    <t>Input Bit 2</t>
+  </si>
+  <si>
+    <t>Output Bit 1</t>
+  </si>
+  <si>
+    <t>Output Word 1</t>
+  </si>
+  <si>
+    <t>Output Word 2</t>
   </si>
 </sst>
 </file>
@@ -147,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -170,11 +215,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -188,6 +242,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,27 +560,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFD8961-7CC5-47F9-9308-0A449FA086BC}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4623C659-86DD-4C1D-AD2C-6615A40B0050}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1"/>
+    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>401111</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>401113</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="I4" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFD8961-7CC5-47F9-9308-0A449FA086BC}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" style="1"/>
     <col min="14" max="14" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.7109375" style="1"/>
@@ -531,7 +686,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="26.25">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -547,40 +702,40 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1">
       <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -594,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5">
         <v>401111</v>
@@ -632,4 +787,253 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F95E50-B4C5-4184-8E61-9F97775010DE}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1"/>
+    <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" customFormat="1" ht="26.25">
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>401111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="K4" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4FE8E5-3E82-40A7-ACC9-AC5212C8C589}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" customFormat="1" ht="26.25">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>401111</v>
+      </c>
+      <c r="K3" s="5">
+        <v>401112</v>
+      </c>
+      <c r="L3" s="6">
+        <v>401113</v>
+      </c>
+      <c r="M3" s="5">
+        <v>401114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/tools/xml_tool/Excel_Template_Empty.xlsx
+++ b/src/main/resources/tools/xml_tool/Excel_Template_Empty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.holmes1\IdeaProjects\XML_Tool\src\main\resources\tools\xml_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D47AEAB-02DC-43A1-9658-A5375C4D9AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9393A0C2-8386-4AB4-9E8C-70049EC7468F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BCC978E4-153D-444B-A566-8372D2C7B1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCC978E4-153D-444B-A566-8372D2C7B1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="DIO" sheetId="2" r:id="rId1"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4623C659-86DD-4C1D-AD2C-6615A40B0050}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -907,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4FE8E5-3E82-40A7-ACC9-AC5212C8C589}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
